--- a/biology/Zoologie/Face_aux_serpents/Face_aux_serpents.xlsx
+++ b/biology/Zoologie/Face_aux_serpents/Face_aux_serpents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Face aux serpents (Venomous) est un film américain réalisé par Fred Olen Ray, sorti en 2001.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une race génétiquement modifiée de serpents créée secrètement par l'armée et ultra dangereuse, est mise en liberté par l'explosion terroriste du bâtiment où ils étaient gardés. Quelques années plus tard, les secousses telluriques font ressortir ces affreux reptiles du fond de la terre, prêts à tuer !
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre français : Face aux serpents
 Titre original : Venomous
@@ -588,7 +604,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Treat Williams : le docteur David Henning
 Mary Page Keller : le docteur Christine Edmonton Henning
@@ -632,7 +650,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le film fait usage de stock-shots issus des films Delta Force 2 (1990), Morsures (1996) et La Mutante (1995).
 Le personnage du général Arthur Manchek est une référence au major Manchek du Mystère Andromède (1971), autre thriller ayant pour sujet les virus. Les deux films font également référence à la directive 712, décrite dans le Mystère Andromède comme étant l'utilisation d'une explosion nucléaire pour prévenir la propagation d'un virus.
@@ -664,7 +684,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Nomination au prix de la meilleure actrice pour Mary Page Keller, meilleur second rôle masculin pour Joe Don Baker et meilleurs effets spéciaux pour Tom Ceglia, lors des DVD Exclusive Awards en 2003.</t>
         </is>
